--- a/Documents/canID.xlsx
+++ b/Documents/canID.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -136,12 +136,6 @@
     <t>PAN speed (2 Byte)</t>
   </si>
   <si>
-    <t>bit0: pan brake</t>
-  </si>
-  <si>
-    <t>bit1: tilt brake</t>
-  </si>
-  <si>
     <t>TILT speed (2 Byte)</t>
   </si>
   <si>
@@ -272,6 +266,12 @@
   </si>
   <si>
     <t>Optronik state:</t>
+  </si>
+  <si>
+    <t>bit0: pan brake free</t>
+  </si>
+  <si>
+    <t>bit1: tilt brake free</t>
   </si>
 </sst>
 </file>
@@ -716,6 +716,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,18 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
@@ -872,6 +866,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -917,6 +929,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -934,6 +949,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,30 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,7 +1305,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U49" sqref="U49"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,29 +1326,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="71" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
@@ -1411,334 +1411,334 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="92"/>
+      <c r="S3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="104"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="104"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="104"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="104"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="104"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="104"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90" t="s">
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="90"/>
-      <c r="S3" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" s="106"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="151" t="s">
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="130"/>
+      <c r="S9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="104"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="104"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" s="104"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="104"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="T13" s="104"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="T4" s="106"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="106"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="106"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="151" t="s">
-        <v>80</v>
-      </c>
-      <c r="T7" s="106"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" s="106"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103" t="s">
+      <c r="T14" s="104"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="103"/>
-      <c r="S9" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" s="106"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="T10" s="106"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="106"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T12" s="106"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="152" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13" s="106"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="106"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="R15" s="23" t="s">
         <v>24</v>
@@ -1748,21 +1748,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1777,21 +1777,21 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="21" t="s">
         <v>17</v>
       </c>
@@ -1799,28 +1799,28 @@
         <v>3</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S17" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
       <c r="P18" s="9" t="s">
         <v>18</v>
       </c>
@@ -1835,21 +1835,21 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
       <c r="P19" s="9" t="s">
         <v>19</v>
       </c>
@@ -1857,78 +1857,78 @@
         <v>5</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S19" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S20" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S21" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="5"/>
       <c r="S22" s="53" t="s">
@@ -1936,21 +1936,21 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1959,21 +1959,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="5"/>
@@ -1982,56 +1982,56 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="93" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
       <c r="Q25" s="46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R25" s="47" t="s">
         <v>8</v>
       </c>
       <c r="S25" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="T25" s="107" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="T25" s="105" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
       <c r="Q26" s="49" t="s">
         <v>7</v>
       </c>
@@ -2041,25 +2041,25 @@
       <c r="S26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="107"/>
+      <c r="T26" s="105"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
       <c r="Q27" s="51" t="s">
         <v>17</v>
       </c>
@@ -2069,25 +2069,25 @@
       <c r="S27" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="107"/>
+      <c r="T27" s="105"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
       <c r="Q28" s="52" t="s">
         <v>18</v>
       </c>
@@ -2097,25 +2097,25 @@
       <c r="S28" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="T28" s="107"/>
+      <c r="T28" s="105"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="148"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="148"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
       <c r="Q29" s="52" t="s">
         <v>19</v>
       </c>
@@ -2125,25 +2125,25 @@
       <c r="S29" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="107"/>
+      <c r="T29" s="105"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="148"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="148"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
       <c r="Q30" s="54" t="s">
         <v>6</v>
       </c>
@@ -2151,25 +2151,25 @@
         <v>12</v>
       </c>
       <c r="S30" s="55"/>
-      <c r="T30" s="107"/>
+      <c r="T30" s="105"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="148"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="148"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
       <c r="Q31" s="51" t="s">
         <v>20</v>
       </c>
@@ -2177,25 +2177,25 @@
         <v>6</v>
       </c>
       <c r="S31" s="24"/>
-      <c r="T31" s="107"/>
+      <c r="T31" s="105"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
       <c r="Q32" s="51" t="s">
         <v>21</v>
       </c>
@@ -2203,25 +2203,25 @@
         <v>13</v>
       </c>
       <c r="S32" s="24"/>
-      <c r="T32" s="107"/>
+      <c r="T32" s="105"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
       <c r="Q33" s="51" t="s">
         <v>22</v>
       </c>
@@ -2229,153 +2229,153 @@
         <v>14</v>
       </c>
       <c r="S33" s="24"/>
-      <c r="T33" s="107"/>
+      <c r="T33" s="105"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="148"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
       <c r="Q34" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R34" s="52" t="s">
         <v>15</v>
       </c>
       <c r="S34" s="24"/>
-      <c r="T34" s="107"/>
+      <c r="T34" s="105"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="148"/>
-      <c r="N35" s="148"/>
-      <c r="O35" s="148"/>
-      <c r="P35" s="148"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
       <c r="Q35" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R35" s="52"/>
       <c r="S35" s="24"/>
-      <c r="T35" s="107"/>
+      <c r="T35" s="105"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="112"/>
       <c r="Q36" s="51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R36" s="52"/>
       <c r="S36" s="24"/>
-      <c r="T36" s="107"/>
+      <c r="T36" s="105"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="150"/>
-      <c r="O37" s="150"/>
-      <c r="P37" s="150"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
       <c r="Q37" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R37" s="57"/>
       <c r="S37" s="58"/>
-      <c r="T37" s="107"/>
+      <c r="T37" s="105"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="111" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="140"/>
-      <c r="N38" s="140"/>
-      <c r="O38" s="140"/>
-      <c r="P38" s="140"/>
-      <c r="Q38" s="60" t="s">
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="148"/>
+      <c r="N38" s="148"/>
+      <c r="O38" s="148"/>
+      <c r="P38" s="148"/>
+      <c r="Q38" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="R38" s="60"/>
+      <c r="R38" s="62"/>
       <c r="S38" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="142"/>
-      <c r="O39" s="142"/>
-      <c r="P39" s="142"/>
-      <c r="Q39" s="134" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="142" t="s">
         <v>32</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -2386,23 +2386,23 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="141"/>
-      <c r="M40" s="142"/>
-      <c r="N40" s="142"/>
-      <c r="O40" s="142"/>
-      <c r="P40" s="142"/>
-      <c r="Q40" s="134"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="150"/>
+      <c r="N40" s="150"/>
+      <c r="O40" s="150"/>
+      <c r="P40" s="150"/>
+      <c r="Q40" s="142"/>
       <c r="R40" s="5" t="s">
         <v>34</v>
       </c>
@@ -2411,23 +2411,23 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="141"/>
-      <c r="M41" s="142"/>
-      <c r="N41" s="142"/>
-      <c r="O41" s="142"/>
-      <c r="P41" s="142"/>
-      <c r="Q41" s="134"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="150"/>
+      <c r="N41" s="150"/>
+      <c r="O41" s="150"/>
+      <c r="P41" s="150"/>
+      <c r="Q41" s="142"/>
       <c r="R41" s="5" t="s">
         <v>35</v>
       </c>
@@ -2436,22 +2436,22 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="142"/>
-      <c r="N42" s="142"/>
-      <c r="O42" s="142"/>
-      <c r="P42" s="142"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="150"/>
+      <c r="N42" s="150"/>
+      <c r="O42" s="150"/>
+      <c r="P42" s="150"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="13" t="s">
@@ -2459,22 +2459,22 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="142"/>
-      <c r="N43" s="142"/>
-      <c r="O43" s="142"/>
-      <c r="P43" s="142"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="150"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="150"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="7" t="s">
@@ -2482,22 +2482,22 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="141"/>
-      <c r="M44" s="142"/>
-      <c r="N44" s="142"/>
-      <c r="O44" s="142"/>
-      <c r="P44" s="142"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="149"/>
+      <c r="M44" s="150"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="150"/>
+      <c r="P44" s="150"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="12" t="s">
@@ -2505,22 +2505,22 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="141"/>
-      <c r="M45" s="142"/>
-      <c r="N45" s="142"/>
-      <c r="O45" s="142"/>
-      <c r="P45" s="142"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="149"/>
+      <c r="M45" s="150"/>
+      <c r="N45" s="150"/>
+      <c r="O45" s="150"/>
+      <c r="P45" s="150"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="12" t="s">
@@ -2528,22 +2528,22 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="141"/>
-      <c r="M46" s="142"/>
-      <c r="N46" s="142"/>
-      <c r="O46" s="142"/>
-      <c r="P46" s="142"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="149"/>
+      <c r="M46" s="150"/>
+      <c r="N46" s="150"/>
+      <c r="O46" s="150"/>
+      <c r="P46" s="150"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="12" t="s">
@@ -2551,22 +2551,22 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="143"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="152"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="152"/>
+      <c r="P47" s="152"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="20" t="s">
@@ -2574,124 +2574,124 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="135" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="137"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="143" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="145"/>
+      <c r="L48" s="146"/>
+      <c r="M48" s="140"/>
+      <c r="N48" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="O48" s="132"/>
-      <c r="P48" s="132" t="s">
+      <c r="O48" s="140"/>
+      <c r="P48" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="Q48" s="132"/>
-      <c r="R48" s="132" t="s">
+      <c r="Q48" s="140"/>
+      <c r="R48" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="S48" s="133"/>
+      <c r="S48" s="141"/>
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="61"/>
+      <c r="A49" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="63"/>
       <c r="L49" s="38"/>
       <c r="M49" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="O49" s="36"/>
+      <c r="P49" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="N49" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="68" t="s">
-        <v>66</v>
-      </c>
       <c r="Q49" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R49" s="68" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="R49" s="70" t="s">
+        <v>65</v>
       </c>
       <c r="S49" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="64"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="66"/>
       <c r="L50" s="31"/>
       <c r="M50" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O50" s="30"/>
-      <c r="P50" s="69"/>
+      <c r="P50" s="71"/>
       <c r="Q50" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="R50" s="69"/>
+        <v>58</v>
+      </c>
+      <c r="R50" s="71"/>
       <c r="S50" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="67"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="69"/>
       <c r="L51" s="33"/>
       <c r="M51" s="34"/>
       <c r="N51" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O51" s="34"/>
-      <c r="P51" s="70"/>
+      <c r="P51" s="72"/>
       <c r="Q51" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="R51" s="70"/>
+        <v>56</v>
+      </c>
+      <c r="R51" s="72"/>
       <c r="S51" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -2748,17 +2748,14 @@
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="P48:Q48"/>
     <mergeCell ref="L38:P47"/>
-    <mergeCell ref="D9:G24"/>
-    <mergeCell ref="H9:K14"/>
-    <mergeCell ref="O9:P14"/>
-    <mergeCell ref="Q9:R14"/>
-    <mergeCell ref="H15:K24"/>
-    <mergeCell ref="L9:N14"/>
     <mergeCell ref="T3:T8"/>
     <mergeCell ref="T9:T14"/>
     <mergeCell ref="T25:T37"/>
     <mergeCell ref="L15:O24"/>
     <mergeCell ref="L25:P37"/>
+    <mergeCell ref="O9:P14"/>
+    <mergeCell ref="Q9:R14"/>
+    <mergeCell ref="L9:N14"/>
     <mergeCell ref="A49:K51"/>
     <mergeCell ref="R49:R51"/>
     <mergeCell ref="P49:P51"/>
@@ -2772,6 +2769,9 @@
     <mergeCell ref="Q3:R8"/>
     <mergeCell ref="D25:G37"/>
     <mergeCell ref="H25:K37"/>
+    <mergeCell ref="D9:G24"/>
+    <mergeCell ref="H9:K14"/>
+    <mergeCell ref="H15:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/canID.xlsx
+++ b/Documents/canID.xlsx
@@ -193,9 +193,6 @@
     <t>&amp;0xF = 4 -&gt; DOWN</t>
   </si>
   <si>
-    <t>bit2: A button</t>
-  </si>
-  <si>
     <t>bit4: zoom IN</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>bit0: deadman</t>
   </si>
   <si>
-    <t>bit1: trigger</t>
-  </si>
-  <si>
     <t>tilt</t>
   </si>
   <si>
@@ -272,6 +266,12 @@
   </si>
   <si>
     <t>bit1: tilt brake free</t>
+  </si>
+  <si>
+    <t>bit2: A button/LRF request</t>
+  </si>
+  <si>
+    <t>bit2: trigger</t>
   </si>
 </sst>
 </file>
@@ -722,134 +722,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
@@ -860,12 +800,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,31 +833,133 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,9 +980,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -949,54 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,10 +1302,10 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3:R8"/>
+      <selection pane="bottomRight" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,7 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="10" width="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.42578125" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
@@ -1326,29 +1326,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="73" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="75"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="114"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
@@ -1411,329 +1411,329 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="76" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="85" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92" t="s">
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92" t="s">
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="92"/>
+      <c r="R3" s="131"/>
       <c r="S3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" s="84"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="84"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" s="84"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="84"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="106"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="104"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="59" t="s">
+      <c r="T7" s="84"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="84"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="98"/>
+      <c r="S9" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="84"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="84"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="106"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="84"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" s="84"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="84"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="T4" s="104"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="104"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="T6" s="104"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="T7" s="104"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="104"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="124" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="130"/>
-      <c r="S9" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="T9" s="104"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="104"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" s="104"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="T12" s="104"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="T13" s="104"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="T14" s="104"/>
+      <c r="T14" s="84"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
       <c r="P15" s="39" t="s">
         <v>43</v>
       </c>
@@ -1748,21 +1748,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
       <c r="P16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1777,21 +1777,21 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
       <c r="P17" s="21" t="s">
         <v>17</v>
       </c>
@@ -1799,28 +1799,28 @@
         <v>3</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S17" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
       <c r="P18" s="9" t="s">
         <v>18</v>
       </c>
@@ -1835,21 +1835,21 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
       <c r="P19" s="9" t="s">
         <v>19</v>
       </c>
@@ -1857,78 +1857,78 @@
         <v>5</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S19" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S20" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S21" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="5"/>
       <c r="S22" s="53" t="s">
@@ -1936,21 +1936,21 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1959,21 +1959,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="5"/>
@@ -1982,26 +1982,26 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="95" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="95" t="s">
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
       <c r="Q25" s="46" t="s">
         <v>43</v>
       </c>
@@ -2011,27 +2011,27 @@
       <c r="S25" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="T25" s="105" t="s">
-        <v>66</v>
+      <c r="T25" s="85" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
       <c r="Q26" s="49" t="s">
         <v>7</v>
       </c>
@@ -2041,25 +2041,25 @@
       <c r="S26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="105"/>
+      <c r="T26" s="85"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
       <c r="Q27" s="51" t="s">
         <v>17</v>
       </c>
@@ -2069,25 +2069,25 @@
       <c r="S27" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="105"/>
+      <c r="T27" s="85"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
       <c r="Q28" s="52" t="s">
         <v>18</v>
       </c>
@@ -2097,25 +2097,25 @@
       <c r="S28" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="T28" s="105"/>
+      <c r="T28" s="85"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
       <c r="Q29" s="52" t="s">
         <v>19</v>
       </c>
@@ -2125,25 +2125,25 @@
       <c r="S29" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="105"/>
+      <c r="T29" s="85"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
       <c r="Q30" s="54" t="s">
         <v>6</v>
       </c>
@@ -2151,25 +2151,25 @@
         <v>12</v>
       </c>
       <c r="S30" s="55"/>
-      <c r="T30" s="105"/>
+      <c r="T30" s="85"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
       <c r="Q31" s="51" t="s">
         <v>20</v>
       </c>
@@ -2177,25 +2177,25 @@
         <v>6</v>
       </c>
       <c r="S31" s="24"/>
-      <c r="T31" s="105"/>
+      <c r="T31" s="85"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
       <c r="Q32" s="51" t="s">
         <v>21</v>
       </c>
@@ -2203,25 +2203,25 @@
         <v>13</v>
       </c>
       <c r="S32" s="24"/>
-      <c r="T32" s="105"/>
+      <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
       <c r="Q33" s="51" t="s">
         <v>22</v>
       </c>
@@ -2229,153 +2229,153 @@
         <v>14</v>
       </c>
       <c r="S33" s="24"/>
-      <c r="T33" s="105"/>
+      <c r="T33" s="85"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
       <c r="Q34" s="54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R34" s="52" t="s">
         <v>15</v>
       </c>
       <c r="S34" s="24"/>
-      <c r="T34" s="105"/>
+      <c r="T34" s="85"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
       <c r="Q35" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R35" s="52"/>
       <c r="S35" s="24"/>
-      <c r="T35" s="105"/>
+      <c r="T35" s="85"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
       <c r="Q36" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R36" s="52"/>
       <c r="S36" s="24"/>
-      <c r="T36" s="105"/>
+      <c r="T36" s="85"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
       <c r="Q37" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R37" s="57"/>
       <c r="S37" s="58"/>
-      <c r="T37" s="105"/>
+      <c r="T37" s="85"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="115" t="s">
+      <c r="A38" s="106"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="116" t="s">
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="148"/>
-      <c r="N38" s="148"/>
-      <c r="O38" s="148"/>
-      <c r="P38" s="148"/>
-      <c r="Q38" s="62" t="s">
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="R38" s="62"/>
+      <c r="R38" s="72"/>
       <c r="S38" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="142" t="s">
+      <c r="A39" s="106"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="73" t="s">
         <v>32</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -2386,23 +2386,23 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="150"/>
-      <c r="N40" s="150"/>
-      <c r="O40" s="150"/>
-      <c r="P40" s="150"/>
-      <c r="Q40" s="142"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="73"/>
       <c r="R40" s="5" t="s">
         <v>34</v>
       </c>
@@ -2411,23 +2411,23 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="150"/>
-      <c r="N41" s="150"/>
-      <c r="O41" s="150"/>
-      <c r="P41" s="150"/>
-      <c r="Q41" s="142"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="73"/>
       <c r="R41" s="5" t="s">
         <v>35</v>
       </c>
@@ -2436,22 +2436,22 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="150"/>
-      <c r="P42" s="150"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="13" t="s">
@@ -2459,22 +2459,22 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="150"/>
-      <c r="N43" s="150"/>
-      <c r="O43" s="150"/>
-      <c r="P43" s="150"/>
+      <c r="A43" s="106"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="7" t="s">
@@ -2482,22 +2482,22 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="149"/>
-      <c r="M44" s="150"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="150"/>
-      <c r="P44" s="150"/>
+      <c r="A44" s="106"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="12" t="s">
@@ -2505,22 +2505,22 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="149"/>
-      <c r="M45" s="150"/>
-      <c r="N45" s="150"/>
-      <c r="O45" s="150"/>
-      <c r="P45" s="150"/>
+      <c r="A45" s="106"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="12" t="s">
@@ -2528,22 +2528,22 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="149"/>
-      <c r="M46" s="150"/>
-      <c r="N46" s="150"/>
-      <c r="O46" s="150"/>
-      <c r="P46" s="150"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="12" t="s">
@@ -2551,22 +2551,22 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="151"/>
-      <c r="M47" s="152"/>
-      <c r="N47" s="152"/>
-      <c r="O47" s="152"/>
-      <c r="P47" s="152"/>
+      <c r="A47" s="106"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="20" t="s">
@@ -2574,122 +2574,122 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="143" t="s">
+      <c r="A48" s="109"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="145"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="140"/>
-      <c r="N48" s="140" t="s">
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="O48" s="140"/>
-      <c r="P48" s="140" t="s">
+      <c r="O48" s="61"/>
+      <c r="P48" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="Q48" s="140"/>
-      <c r="R48" s="140" t="s">
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="S48" s="141"/>
+      <c r="S48" s="62"/>
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="63"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="105"/>
       <c r="L49" s="38"/>
       <c r="M49" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="O49" s="36"/>
+      <c r="P49" s="87" t="s">
         <v>62</v>
-      </c>
-      <c r="N49" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="70" t="s">
-        <v>64</v>
       </c>
       <c r="Q49" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="70" t="s">
-        <v>65</v>
+      <c r="R49" s="87" t="s">
+        <v>63</v>
       </c>
       <c r="S49" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="66"/>
+      <c r="A50" s="106"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="108"/>
       <c r="L50" s="31"/>
       <c r="M50" s="30" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O50" s="30"/>
-      <c r="P50" s="71"/>
+      <c r="P50" s="89"/>
       <c r="Q50" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="R50" s="71"/>
+      <c r="R50" s="89"/>
       <c r="S50" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="69"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="111"/>
       <c r="L51" s="33"/>
       <c r="M51" s="34"/>
       <c r="N51" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O51" s="34"/>
-      <c r="P51" s="72"/>
+      <c r="P51" s="91"/>
       <c r="Q51" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="R51" s="72"/>
+      <c r="R51" s="91"/>
       <c r="S51" s="35" t="s">
         <v>56</v>
       </c>
@@ -2738,24 +2738,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="D38:G48"/>
-    <mergeCell ref="H38:K47"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="L38:P47"/>
-    <mergeCell ref="T3:T8"/>
-    <mergeCell ref="T9:T14"/>
-    <mergeCell ref="T25:T37"/>
-    <mergeCell ref="L15:O24"/>
-    <mergeCell ref="L25:P37"/>
-    <mergeCell ref="O9:P14"/>
-    <mergeCell ref="Q9:R14"/>
-    <mergeCell ref="L9:N14"/>
     <mergeCell ref="A49:K51"/>
     <mergeCell ref="R49:R51"/>
     <mergeCell ref="P49:P51"/>
@@ -2772,6 +2754,24 @@
     <mergeCell ref="D9:G24"/>
     <mergeCell ref="H9:K14"/>
     <mergeCell ref="H15:K24"/>
+    <mergeCell ref="T3:T8"/>
+    <mergeCell ref="T9:T14"/>
+    <mergeCell ref="T25:T37"/>
+    <mergeCell ref="L15:O24"/>
+    <mergeCell ref="L25:P37"/>
+    <mergeCell ref="O9:P14"/>
+    <mergeCell ref="Q9:R14"/>
+    <mergeCell ref="L9:N14"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="D38:G48"/>
+    <mergeCell ref="H38:K47"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="L38:P47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
